--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Charles_Arthur/Joseph_Charles_Arthur.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Charles_Arthur/Joseph_Charles_Arthur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Charles Arthur est un botaniste et un  mycologue américain, né le 11 janvier 1850 à Lowville (New York) et mort le 30 avril 1942. Pour désigner Joseph Charles Arthur comme l'auteur en citant le nom botanique, est utilisée l'abréviation d'auteur Arthur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Charles Arthur est un botaniste et un  mycologue américain, né le 11 janvier 1850 à Lowville (New York) et mort le 30 avril 1942. Pour désigner Joseph Charles Arthur comme l'auteur en citant le nom botanique, est utilisée l'abréviation d'auteur Arthur.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Charles («JC») Arthur est né à Lowville, New York, le 11 janvier 1850. Au début de son enfance, sa famille a déménagé dans une ferme près de Charles City, Iowa, où il a grandi.
-Il étudie à l’université d'État de l'Iowa de 1872 à 1877, et décide de s’orienter vers la botanique avoir suivi un cours auprès de Charles Edwin Bessey (1845-1915)[2].
+Il étudie à l’université d'État de l'Iowa de 1872 à 1877, et décide de s’orienter vers la botanique avoir suivi un cours auprès de Charles Edwin Bessey (1845-1915).
 Il devient assistant en botanique à l’université du Wisconsin en 1879. En 1880, il passe quelques mois à l’université Johns-Hopkins où il assiste aux cours de William Gilson Farlow (1844-1919). Il consacre ses vacances d’été à étudier à Harvard où il fait la connaissance d’Asa Gray (1810-1888), de John Merle Coulter (1851-1928) et de Charles Reid Barnes (1858-1910).
 En 1884, il devient botaniste à la station agricole expérimentale de Geneva (New York). Après avoir obtenu son Ph. D. à l’université Cornell (1886), il devient professeur de botanique à l’université Purdue (1887), puis professeur de physiologie végétale et de pathologie dans cette même université (1888) tout en étant botanique à la station expérimentale de l’Indiana.
 Il se consacre à l’étude de la rouille.
@@ -546,11 +560,13 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur a épousé Emily Stiles Potter de Lafayette (Indiana) en 1901 et ils ont vécu ensemble jusqu'à sa mort en 1935[2].
-Ses intérêts s'étendent également à la musique. Sa première a été Vive Purdue[2].
-Arthur est décédé en 1942 à Brook (Indiana). Il est enterré à Lafayette[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthur a épousé Emily Stiles Potter de Lafayette (Indiana) en 1901 et ils ont vécu ensemble jusqu'à sa mort en 1935.
+Ses intérêts s'étendent également à la musique. Sa première a été Vive Purdue.
+Arthur est décédé en 1942 à Brook (Indiana). Il est enterré à Lafayette.
 </t>
         </is>
       </c>
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Espèces de champignons nommés d'après J. C. Arthur
-1931 : Arthurella
+          <t>Espèces de champignons nommés d'après J. C. Arthur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1931 : Arthurella
 1936 : Arthuria
 1983 : Arthuriomyces</t>
         </is>
@@ -612,9 +633,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1886 : avec John Merle Coulter et Charles Reid Barnes, Handbook of plant dissection[3] (Holt, New York).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1886 : avec John Merle Coulter et Charles Reid Barnes, Handbook of plant dissection (Holt, New York).</t>
         </is>
       </c>
     </row>
